--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249926.8680385991</v>
+        <v>-251814.449555001</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>147.9664617264413</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>165.8123474728897</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>55.66811582074952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>353.4869410072736</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.5370897503038</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>99.38122376111798</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>146.7032454636445</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>282.3497099061063</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>55.90301252244932</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.1439989259705</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>216.9146954436806</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.32100528936389</v>
       </c>
       <c r="S16" t="n">
-        <v>130.8380249033135</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.8530952542002</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.705391967079</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>100.1380520687128</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>147.1163355383942</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>55.14913694312094</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>8.328729309133243</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>36.41593006389078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>256.604714631364</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,13 +3004,13 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>16.5157019363653</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>72.01733671009369</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.8324622741539</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.372931623164</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.372931623164</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>941.58467902492</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>530.5987742353125</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2298.4556941933</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1967.39280684973</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1614.624151579615</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392339</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>257.0633493392339</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1231.905553626649</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1231.905553626649</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1231.905553626649</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>846.1173010284049</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.505393690771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.505393690771</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.505393690771</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816297</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>154.3280563265442</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>154.3280563265442</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2548.963994590299</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="W10" t="n">
-        <v>671.6612947898188</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>97.9896501033331</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.8011874802282</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C13" t="n">
-        <v>613.8011874802282</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186419</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>856.1050922895458</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>856.1050922895458</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.242231453998</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y13" t="n">
-        <v>795.449652310468</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>545.8631874464249</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>376.9270045185181</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>376.9270045185181</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185181</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185181</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.218285417131</v>
       </c>
       <c r="S16" t="n">
-        <v>1366.756649443444</v>
+        <v>1461.218285417131</v>
       </c>
       <c r="T16" t="n">
-        <v>1366.756649443444</v>
+        <v>1237.432870206637</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.628010657002</v>
+        <v>948.3042314201948</v>
       </c>
       <c r="V16" t="n">
-        <v>822.9435224511154</v>
+        <v>948.3042314201948</v>
       </c>
       <c r="W16" t="n">
-        <v>822.9435224511154</v>
+        <v>948.3042314201948</v>
       </c>
       <c r="X16" t="n">
-        <v>594.9539715530981</v>
+        <v>948.3042314201948</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.9539715530981</v>
+        <v>727.5116522766647</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>565.9270610048576</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048576</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1238.494606256899</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>786.7196401483877</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>565.9270610048576</v>
       </c>
     </row>
     <row r="20">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>879.2482765610113</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1197.846712929301</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>943.1622247234138</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W22" t="n">
-        <v>653.7450546864533</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>425.7555037884359</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,22 +5990,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>299.8132378906416</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="C25" t="n">
-        <v>299.8132378906416</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1490.503412669889</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1490.503412669889</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247856</v>
+        <v>1490.503412669889</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247856</v>
+        <v>1201.374773883447</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188987</v>
+        <v>946.6902856775604</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188987</v>
+        <v>657.2731156405998</v>
       </c>
       <c r="X25" t="n">
-        <v>481.4617027208814</v>
+        <v>429.2835647425825</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.4617027208814</v>
+        <v>429.2835647425825</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>284.1174986139252</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811257</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>465.765963444165</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X28" t="n">
-        <v>465.765963444165</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.765963444165</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508395</v>
+        <v>600.4439501541576</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043034</v>
+        <v>487.2686325076214</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733385</v>
+        <v>392.9128583766565</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723162</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557766</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,19 +6622,19 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1551.94560295862</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034104</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278514</v>
+        <v>1063.591949181832</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618678</v>
+        <v>891.3632635651859</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997085</v>
+        <v>726.3315497030266</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,19 +7330,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
@@ -7795,25 +7795,25 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498446</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>62.79465928983132</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.47147409224183</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>69.3226569548968</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>72.64334711442891</v>
       </c>
       <c r="S16" t="n">
-        <v>67.08278508028977</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>50.06771472940306</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>10.0042634219582</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>186.0993003298645</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>78.59331985064293</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>93.46633607509142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.6356230946596</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>130.830891034737</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>29.91828370522702</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.518393833655</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>159.3024049979403</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.650457561176334e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1135819.634148766</v>
+        <v>1135819.634148765</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1135819.634148765</v>
+        <v>1135819.634148766</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1135819.634148765</v>
+        <v>1135819.634148766</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1135819.634148766</v>
+        <v>1135819.634148765</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1135819.634148765</v>
+        <v>1135819.634148766</v>
       </c>
     </row>
     <row r="11">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
@@ -26332,16 +26332,16 @@
         <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.389274426</v>
+        <v>264434.3892744259</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
         <v>266838.5752058922</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26445,19 +26445,19 @@
         <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-571621.2498585861</v>
       </c>
       <c r="C6" t="n">
-        <v>18346.62935595844</v>
+        <v>18346.62935595855</v>
       </c>
       <c r="D6" t="n">
-        <v>18346.6293559583</v>
+        <v>18346.62935595852</v>
       </c>
       <c r="E6" t="n">
-        <v>-385153.0811829728</v>
+        <v>-385250.5403089449</v>
       </c>
       <c r="F6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="G6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679512</v>
       </c>
       <c r="H6" t="n">
-        <v>140006.9552939235</v>
+        <v>139909.4961679511</v>
       </c>
       <c r="I6" t="n">
-        <v>140006.9552939236</v>
+        <v>139909.4961679514</v>
       </c>
       <c r="J6" t="n">
-        <v>-36416.26389866954</v>
+        <v>-36513.7230246417</v>
       </c>
       <c r="K6" t="n">
-        <v>83304.34534029028</v>
+        <v>83285.85160235586</v>
       </c>
       <c r="L6" t="n">
-        <v>114187.1677568088</v>
+        <v>114187.1677568087</v>
       </c>
       <c r="M6" t="n">
-        <v>-10270.94067616142</v>
+        <v>-10270.94067616157</v>
       </c>
       <c r="N6" t="n">
         <v>124530.0745576757</v>
       </c>
       <c r="O6" t="n">
-        <v>124530.0745576757</v>
+        <v>124530.0745576756</v>
       </c>
       <c r="P6" t="n">
-        <v>80367.46925483002</v>
+        <v>80367.46925482995</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>265.8177082943537</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>85.41182003539961</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>92.94735719746284</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>11.78595076373392</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3389559914077</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>35.58439803122025</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.74592769735769</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>27.71246734532701</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>66.89125881130667</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.6406194984889</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>230.6199858141417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>269.888074221356</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
